--- a/testdata/Amazon_DDT.xlsx
+++ b/testdata/Amazon_DDT.xlsx
@@ -26,7 +26,7 @@
     <t>Search</t>
   </si>
   <si>
-    <t>Iphone 17 pro max 256gb</t>
+    <t>iPhone 17 Pro 256</t>
   </si>
 </sst>
 </file>
